--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_15.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_15.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_0</t>
+          <t>model_1_15_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9636349136685363</v>
+        <v>0.8422227436132743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7816517063531415</v>
+        <v>0.6168538640544393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7201379221958427</v>
+        <v>0.7282255768254998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9426630590860996</v>
+        <v>0.7685900128455532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1513706426873442</v>
+        <v>0.3739624910827508</v>
       </c>
       <c r="G2" t="n">
-        <v>1.460096045017988</v>
+        <v>2.562099975293699</v>
       </c>
       <c r="H2" t="n">
-        <v>1.001050424969835</v>
+        <v>0.9721213533087112</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2881797036268693</v>
+        <v>0.4455834280326571</v>
       </c>
       <c r="J2" t="n">
-        <v>1.571115649928695</v>
+        <v>1.235567027800019</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3890638028490239</v>
+        <v>0.6115247264688083</v>
       </c>
       <c r="L2" t="n">
-        <v>3.327365525213679</v>
+        <v>0.7851543742819055</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3951911688227785</v>
+        <v>0.6211556296102362</v>
       </c>
       <c r="N2" t="n">
-        <v>133.7760477248254</v>
+        <v>35.9671995556394</v>
       </c>
       <c r="O2" t="n">
-        <v>275.1112202680418</v>
+        <v>72.93178314386522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_1</t>
+          <t>model_1_15_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9632415549419515</v>
+        <v>0.8423006604198721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.781518854923683</v>
+        <v>0.6164016365366316</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7215589372193599</v>
+        <v>0.7284326061779245</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9391640353813178</v>
+        <v>0.7711241263967153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1530080088881851</v>
+        <v>0.3737778132415979</v>
       </c>
       <c r="G3" t="n">
-        <v>1.460984423138501</v>
+        <v>2.565124022787595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9959675366258992</v>
+        <v>0.9713808213193394</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3057660554300041</v>
+        <v>0.4407039540867154</v>
       </c>
       <c r="J3" t="n">
-        <v>1.579893461236406</v>
+        <v>1.238428913855037</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3911623817395854</v>
+        <v>0.6113737099692772</v>
       </c>
       <c r="L3" t="n">
-        <v>3.352540483715103</v>
+        <v>0.78526047376323</v>
       </c>
       <c r="M3" t="n">
-        <v>0.397322798233057</v>
+        <v>0.6210022347517986</v>
       </c>
       <c r="N3" t="n">
-        <v>133.7545300265706</v>
+        <v>35.96818748069219</v>
       </c>
       <c r="O3" t="n">
-        <v>275.0897025697869</v>
+        <v>72.93277106891802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_2</t>
+          <t>model_1_15_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9628323996467653</v>
+        <v>0.8431320440198626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7813680155997301</v>
+        <v>0.6076797918256143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7229229379317161</v>
+        <v>0.7312531490448071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.935648093501918</v>
+        <v>0.8146900554777178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1547111287275485</v>
+        <v>0.3718072739559118</v>
       </c>
       <c r="G4" t="n">
-        <v>1.461993086392325</v>
+        <v>2.62344703853057</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9910885851671067</v>
+        <v>0.9612919030289726</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3234374392294335</v>
+        <v>0.3568170991413208</v>
       </c>
       <c r="J4" t="n">
-        <v>1.58763864643852</v>
+        <v>1.206615688334468</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3933333557271091</v>
+        <v>0.6097600134117617</v>
       </c>
       <c r="L4" t="n">
-        <v>3.378726422607023</v>
+        <v>0.7863925705802385</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3995279628907064</v>
+        <v>0.619363124086607</v>
       </c>
       <c r="N4" t="n">
-        <v>133.7323911730288</v>
+        <v>35.97875927944575</v>
       </c>
       <c r="O4" t="n">
-        <v>275.0675637162452</v>
+        <v>72.94334286767157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_3</t>
+          <t>model_1_15_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9623222812722522</v>
+        <v>0.8429871966189149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7811232671150175</v>
+        <v>0.6059449150277476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7242365440057335</v>
+        <v>0.7316186590236384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9317410564763756</v>
+        <v>0.822026922585411</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1568345100800041</v>
+        <v>0.3721505901988596</v>
       </c>
       <c r="G5" t="n">
-        <v>1.463629720636562</v>
+        <v>2.635048167666278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9863898924076033</v>
+        <v>0.9599844950281793</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3430744961448128</v>
+        <v>0.3426898506285585</v>
       </c>
       <c r="J5" t="n">
-        <v>1.596322901044497</v>
+        <v>1.212396218379837</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3960233706235076</v>
+        <v>0.6100414659667486</v>
       </c>
       <c r="L5" t="n">
-        <v>3.411373998575861</v>
+        <v>0.7861953315661819</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4022603428326949</v>
+        <v>0.6196490092379855</v>
       </c>
       <c r="N5" t="n">
-        <v>133.7051282109722</v>
+        <v>35.97691338852177</v>
       </c>
       <c r="O5" t="n">
-        <v>275.0403007541886</v>
+        <v>72.94149697674759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_4</t>
+          <t>model_1_15_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9617848082406767</v>
+        <v>0.8423301520034422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7808467743674485</v>
+        <v>0.6013410673641272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7255150148983005</v>
+        <v>0.7319204273906406</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9277624845351949</v>
+        <v>0.839669642450356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1590717559227646</v>
+        <v>0.373707912507421</v>
       </c>
       <c r="G6" t="n">
-        <v>1.465478628912688</v>
+        <v>2.665834118191677</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9818168761548924</v>
+        <v>0.9589050870769478</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3630710928343594</v>
+        <v>0.3087185268585291</v>
       </c>
       <c r="J6" t="n">
-        <v>1.603596314260369</v>
+        <v>1.169406212070706</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3988380071191368</v>
+        <v>0.6113165403515768</v>
       </c>
       <c r="L6" t="n">
-        <v>3.445772272596692</v>
+        <v>0.7853006325153256</v>
       </c>
       <c r="M6" t="n">
-        <v>0.405119307039526</v>
+        <v>0.620944164769768</v>
       </c>
       <c r="N6" t="n">
-        <v>133.6767997669064</v>
+        <v>35.96856153858774</v>
       </c>
       <c r="O6" t="n">
-        <v>275.0119723101228</v>
+        <v>72.93314512681356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_5</t>
+          <t>model_1_15_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9611800488297394</v>
+        <v>0.8406428269434408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7805521073167433</v>
+        <v>0.5951156080967547</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7267797355533003</v>
+        <v>0.7319968956004266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9235342455321256</v>
+        <v>0.8599158163356717</v>
       </c>
       <c r="F7" t="n">
-        <v>0.161589083115952</v>
+        <v>0.3777071979377483</v>
       </c>
       <c r="G7" t="n">
-        <v>1.467449068837571</v>
+        <v>2.707463792978201</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9772930437046748</v>
+        <v>0.958631564724425</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3843225346334225</v>
+        <v>0.2697342130210142</v>
       </c>
       <c r="J7" t="n">
-        <v>1.612097800914829</v>
+        <v>1.181705383408984</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4019814462334699</v>
+        <v>0.6145788785320794</v>
       </c>
       <c r="L7" t="n">
-        <v>3.484476874896679</v>
+        <v>0.7830029983910683</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4083122521776235</v>
+        <v>0.6242578815154718</v>
       </c>
       <c r="N7" t="n">
-        <v>133.6453973803052</v>
+        <v>35.94727198431426</v>
       </c>
       <c r="O7" t="n">
-        <v>274.9805699235217</v>
+        <v>72.91185557254008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_6</t>
+          <t>model_1_15_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9602086365168654</v>
+        <v>0.8401318147361325</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7801731747719305</v>
+        <v>0.593642895700242</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7280591335351919</v>
+        <v>0.7318866292978379</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9178266415715604</v>
+        <v>0.864156197615924</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1656326128019222</v>
+        <v>0.3789183953079848</v>
       </c>
       <c r="G8" t="n">
-        <v>1.469982992509558</v>
+        <v>2.717311827554898</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9727167113072062</v>
+        <v>0.9590259808951769</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4130093740698894</v>
+        <v>0.2615692947724374</v>
       </c>
       <c r="J8" t="n">
-        <v>1.626008949239887</v>
+        <v>1.183016614078231</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4069798678091119</v>
+        <v>0.6155634778867122</v>
       </c>
       <c r="L8" t="n">
-        <v>3.546647262920615</v>
+        <v>0.7823071519811167</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4133893938964934</v>
+        <v>0.6252579873257018</v>
       </c>
       <c r="N8" t="n">
-        <v>133.5959662384218</v>
+        <v>35.94086882578711</v>
       </c>
       <c r="O8" t="n">
-        <v>274.9311387816382</v>
+        <v>72.90545241401293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_7</t>
+          <t>model_1_15_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9595203471926689</v>
+        <v>0.8398552174578402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7798017969540973</v>
+        <v>0.5928852903310504</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7292603528303598</v>
+        <v>0.7318212401356778</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9133423190103224</v>
+        <v>0.8662747332096588</v>
       </c>
       <c r="F9" t="n">
-        <v>0.168497635489035</v>
+        <v>0.3795739841398971</v>
       </c>
       <c r="G9" t="n">
-        <v>1.472466397687445</v>
+        <v>2.722377938147134</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9684200195390872</v>
+        <v>0.9592598741367422</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4355479107631081</v>
+        <v>0.2574900224649915</v>
       </c>
       <c r="J9" t="n">
-        <v>1.632437098927306</v>
+        <v>1.186222074745033</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4104846349000593</v>
+        <v>0.6160957589043258</v>
       </c>
       <c r="L9" t="n">
-        <v>3.590697779669192</v>
+        <v>0.7819305088787611</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4169493575656416</v>
+        <v>0.625798651237257</v>
       </c>
       <c r="N9" t="n">
-        <v>133.5616671239884</v>
+        <v>35.93741149905354</v>
       </c>
       <c r="O9" t="n">
-        <v>274.8968396672048</v>
+        <v>72.90199508727936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_8</t>
+          <t>model_1_15_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9585762740654959</v>
+        <v>0.8394912412274198</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7793842442306689</v>
+        <v>0.5925077333114662</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7304118423827519</v>
+        <v>0.731161919931384</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9078378773998884</v>
+        <v>0.8664129611520115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1724273650846546</v>
+        <v>0.3804366779206109</v>
       </c>
       <c r="G10" t="n">
-        <v>1.475258574671666</v>
+        <v>2.724902663675584</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9643012081773812</v>
+        <v>0.9616182242779191</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4632136412091788</v>
+        <v>0.2572238624726729</v>
       </c>
       <c r="J10" t="n">
-        <v>1.642581405575163</v>
+        <v>1.120188084460392</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4152437417766276</v>
+        <v>0.6167954911643007</v>
       </c>
       <c r="L10" t="n">
-        <v>3.651118459808259</v>
+        <v>0.7814348816713802</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4217834156181542</v>
+        <v>0.6265094035808508</v>
       </c>
       <c r="N10" t="n">
-        <v>133.5155584063189</v>
+        <v>35.93287106721858</v>
       </c>
       <c r="O10" t="n">
-        <v>274.8507309495353</v>
+        <v>72.89745465544439</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_9</t>
+          <t>model_1_15_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9576211038634893</v>
+        <v>0.8391889525714354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7789185162148072</v>
+        <v>0.5917305521417195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7315308815126422</v>
+        <v>0.7310768719226202</v>
       </c>
       <c r="E11" t="n">
-        <v>0.902316750336813</v>
+        <v>0.8684845130873686</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1764032865505265</v>
+        <v>0.3811531602667158</v>
       </c>
       <c r="G11" t="n">
-        <v>1.478372900058213</v>
+        <v>2.73009967773627</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9602984700953805</v>
+        <v>0.9619224360739004</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4909632339736862</v>
+        <v>0.2532350579095922</v>
       </c>
       <c r="J11" t="n">
-        <v>1.651060449188768</v>
+        <v>1.12340180578469</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4200039125419268</v>
+        <v>0.6173760282572655</v>
       </c>
       <c r="L11" t="n">
-        <v>3.712249352736684</v>
+        <v>0.7810232545653589</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4266185543145818</v>
+        <v>0.6270990835527057</v>
       </c>
       <c r="N11" t="n">
-        <v>133.4699650086884</v>
+        <v>35.92910797836652</v>
       </c>
       <c r="O11" t="n">
-        <v>274.8051375519048</v>
+        <v>72.89369156659234</v>
       </c>
     </row>
   </sheetData>
